--- a/cypress/fixtures/login.xlsx
+++ b/cypress/fixtures/login.xlsx
@@ -111,7 +111,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
